--- a/graphs/growing_gap_data.xlsx
+++ b/graphs/growing_gap_data.xlsx
@@ -395,10 +395,10 @@
         <v>2012</v>
       </c>
       <c r="C2" t="n">
-        <v>48.1416152042546</v>
+        <v>48.141615204388</v>
       </c>
       <c r="D2" t="n">
-        <v>22.9506220717065</v>
+        <v>22.9506220718004</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>2013</v>
       </c>
       <c r="C3" t="n">
-        <v>50.403677082594</v>
+        <v>50.4036770827517</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3700903051438</v>
+        <v>24.3700903052903</v>
       </c>
     </row>
     <row r="4">
@@ -423,10 +423,10 @@
         <v>2014</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2645011322363</v>
+        <v>51.2645011324416</v>
       </c>
       <c r="D4" t="n">
-        <v>25.1190785837733</v>
+        <v>25.1190785839009</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         <v>2015</v>
       </c>
       <c r="C5" t="n">
-        <v>53.2795933042859</v>
+        <v>53.2795933044902</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1441737904033</v>
+        <v>27.1441737905342</v>
       </c>
     </row>
     <row r="6">
@@ -451,10 +451,10 @@
         <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>55.0642347746916</v>
+        <v>55.0642347748929</v>
       </c>
       <c r="D6" t="n">
-        <v>28.5519315290959</v>
+        <v>28.5519315292237</v>
       </c>
     </row>
     <row r="7">
@@ -465,10 +465,10 @@
         <v>2017</v>
       </c>
       <c r="C7" t="n">
-        <v>55.4620226653498</v>
+        <v>55.462022665553</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8913335410817</v>
+        <v>28.8913335412143</v>
       </c>
     </row>
     <row r="8">
@@ -479,10 +479,10 @@
         <v>2018</v>
       </c>
       <c r="C8" t="n">
-        <v>55.972904943599</v>
+        <v>55.9729049438037</v>
       </c>
       <c r="D8" t="n">
-        <v>28.334598197464</v>
+        <v>28.3345981975956</v>
       </c>
     </row>
     <row r="9">
@@ -885,10 +885,10 @@
         <v>2012</v>
       </c>
       <c r="C37" t="n">
-        <v>42.841934168114</v>
+        <v>42.8419341682915</v>
       </c>
       <c r="D37" t="n">
-        <v>20.6421671793499</v>
+        <v>20.6421671795208</v>
       </c>
     </row>
     <row r="38">
@@ -899,10 +899,10 @@
         <v>2013</v>
       </c>
       <c r="C38" t="n">
-        <v>44.9720824699161</v>
+        <v>44.9720824701366</v>
       </c>
       <c r="D38" t="n">
-        <v>22.6794096349382</v>
+        <v>22.6794096352086</v>
       </c>
     </row>
     <row r="39">
@@ -913,10 +913,10 @@
         <v>2014</v>
       </c>
       <c r="C39" t="n">
-        <v>45.9639551041347</v>
+        <v>45.9639551044534</v>
       </c>
       <c r="D39" t="n">
-        <v>23.7899145178124</v>
+        <v>23.7899145180418</v>
       </c>
     </row>
     <row r="40">
@@ -927,10 +927,10 @@
         <v>2015</v>
       </c>
       <c r="C40" t="n">
-        <v>47.5413095281707</v>
+        <v>47.5413095284871</v>
       </c>
       <c r="D40" t="n">
-        <v>25.5510697290011</v>
+        <v>25.5510697292351</v>
       </c>
     </row>
     <row r="41">
@@ -941,10 +941,10 @@
         <v>2016</v>
       </c>
       <c r="C41" t="n">
-        <v>47.3733654563429</v>
+        <v>47.3733654566585</v>
       </c>
       <c r="D41" t="n">
-        <v>24.7034923499551</v>
+        <v>24.7034923501872</v>
       </c>
     </row>
     <row r="42">
@@ -955,10 +955,10 @@
         <v>2017</v>
       </c>
       <c r="C42" t="n">
-        <v>47.2535776262563</v>
+        <v>47.2535776265713</v>
       </c>
       <c r="D42" t="n">
-        <v>25.3496283286865</v>
+        <v>25.3496283289194</v>
       </c>
     </row>
     <row r="43">
@@ -969,10 +969,10 @@
         <v>2018</v>
       </c>
       <c r="C43" t="n">
-        <v>48.5397107069887</v>
+        <v>48.5397107073069</v>
       </c>
       <c r="D43" t="n">
-        <v>24.6363739272819</v>
+        <v>24.6363739275146</v>
       </c>
     </row>
   </sheetData>
